--- a/Jogos_do_Dia/2023-03-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1100,52 +1100,52 @@
         <v>94</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.99</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.65</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
         <v>2</v>
@@ -1204,13 +1204,13 @@
         <v>95</v>
       </c>
       <c r="F5">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="G5">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="H5">
-        <v>3.08</v>
+        <v>2.89</v>
       </c>
       <c r="I5">
         <v>1.07</v>
@@ -1225,10 +1225,10 @@
         <v>2.48</v>
       </c>
       <c r="M5">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="N5">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O5">
         <v>1.56</v>
@@ -1308,13 +1308,13 @@
         <v>96</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1412,52 +1412,52 @@
         <v>97</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="V7">
         <v>1.11</v>
@@ -1620,13 +1620,13 @@
         <v>99</v>
       </c>
       <c r="F9">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="G9">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="H9">
-        <v>3.06</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>1.09</v>
@@ -1641,10 +1641,10 @@
         <v>2.43</v>
       </c>
       <c r="M9">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="N9">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O9">
         <v>1.53</v>
@@ -1724,52 +1724,52 @@
         <v>100</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="V10">
         <v>0.58</v>
@@ -1828,13 +1828,13 @@
         <v>101</v>
       </c>
       <c r="F11">
-        <v>2.49</v>
+        <v>2.48</v>
       </c>
       <c r="G11">
-        <v>3.66</v>
+        <v>3.3</v>
       </c>
       <c r="H11">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="I11">
         <v>1.05</v>
@@ -1849,10 +1849,10 @@
         <v>4.12</v>
       </c>
       <c r="M11">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="N11">
-        <v>1.89</v>
+        <v>2.07</v>
       </c>
       <c r="O11">
         <v>1.36</v>
@@ -1932,13 +1932,13 @@
         <v>102</v>
       </c>
       <c r="F12">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="G12">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H12">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I12">
         <v>1.05</v>
@@ -1953,10 +1953,10 @@
         <v>3.4</v>
       </c>
       <c r="M12">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="N12">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="O12">
         <v>1.4</v>
@@ -2036,13 +2036,13 @@
         <v>103</v>
       </c>
       <c r="F13">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="G13">
         <v>5.75</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="I13">
         <v>1.04</v>
@@ -2057,10 +2057,10 @@
         <v>3.4</v>
       </c>
       <c r="M13">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="N13">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="O13">
         <v>1.4</v>
@@ -2120,7 +2120,7 @@
         <v>3.45</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -2140,13 +2140,13 @@
         <v>104</v>
       </c>
       <c r="F14">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="G14">
         <v>3.35</v>
       </c>
       <c r="H14">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I14">
         <v>1.07</v>
@@ -2161,7 +2161,7 @@
         <v>3.1</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N14">
         <v>1.67</v>
@@ -2244,10 +2244,10 @@
         <v>105</v>
       </c>
       <c r="F15">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="G15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H15">
         <v>2.05</v>
@@ -2265,10 +2265,10 @@
         <v>3.5</v>
       </c>
       <c r="M15">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O15">
         <v>1.4</v>
@@ -2348,10 +2348,10 @@
         <v>106</v>
       </c>
       <c r="F16">
-        <v>2.79</v>
+        <v>2.71</v>
       </c>
       <c r="G16">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H16">
         <v>2.16</v>
@@ -2369,10 +2369,10 @@
         <v>4.5</v>
       </c>
       <c r="M16">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="N16">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O16">
         <v>1.31</v>
@@ -2452,13 +2452,13 @@
         <v>107</v>
       </c>
       <c r="F17">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>3.1</v>
       </c>
       <c r="H17">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="I17">
         <v>1.09</v>
@@ -2473,7 +2473,7 @@
         <v>2.5</v>
       </c>
       <c r="M17">
-        <v>2.27</v>
+        <v>2.48</v>
       </c>
       <c r="N17">
         <v>1.52</v>
@@ -3180,13 +3180,13 @@
         <v>114</v>
       </c>
       <c r="F24">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="G24">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="I24">
         <v>1.06</v>
@@ -3201,10 +3201,10 @@
         <v>3.3</v>
       </c>
       <c r="M24">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="N24">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="O24">
         <v>1.38</v>
@@ -3284,13 +3284,13 @@
         <v>115</v>
       </c>
       <c r="F25">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="G25">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="H25">
-        <v>3.14</v>
+        <v>3.25</v>
       </c>
       <c r="I25">
         <v>1.04</v>
@@ -3305,10 +3305,10 @@
         <v>2.82</v>
       </c>
       <c r="M25">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="N25">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="O25">
         <v>1.47</v>
@@ -3356,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE25">
         <v>1.85</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG25">
         <v>0</v>
@@ -3388,13 +3388,13 @@
         <v>116</v>
       </c>
       <c r="F26">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="G26">
-        <v>2.61</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>4.25</v>
+        <v>3.6</v>
       </c>
       <c r="I26">
         <v>1.09</v>
@@ -3409,10 +3409,10 @@
         <v>2.62</v>
       </c>
       <c r="M26">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="N26">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="O26">
         <v>1.53</v>
@@ -3492,13 +3492,13 @@
         <v>117</v>
       </c>
       <c r="F27">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="G27">
-        <v>3.54</v>
+        <v>3.5</v>
       </c>
       <c r="H27">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="I27">
         <v>1.07</v>
@@ -3513,10 +3513,10 @@
         <v>3.1</v>
       </c>
       <c r="M27">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="N27">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="O27">
         <v>1.44</v>
@@ -3564,7 +3564,7 @@
         <v>3.44</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE27">
         <v>1.34</v>
@@ -3596,13 +3596,13 @@
         <v>118</v>
       </c>
       <c r="F28">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="G28">
-        <v>3.54</v>
+        <v>3.2</v>
       </c>
       <c r="H28">
-        <v>4.34</v>
+        <v>3.05</v>
       </c>
       <c r="I28">
         <v>1.07</v>
@@ -3617,10 +3617,10 @@
         <v>3</v>
       </c>
       <c r="M28">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="N28">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="O28">
         <v>1.47</v>
@@ -3700,13 +3700,13 @@
         <v>119</v>
       </c>
       <c r="F29">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="G29">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="H29">
-        <v>2.47</v>
+        <v>2.29</v>
       </c>
       <c r="I29">
         <v>1.07</v>
@@ -3721,10 +3721,10 @@
         <v>3.1</v>
       </c>
       <c r="M29">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="N29">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O29">
         <v>1.44</v>
@@ -3804,13 +3804,13 @@
         <v>120</v>
       </c>
       <c r="F30">
-        <v>11.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G30">
-        <v>5.75</v>
+        <v>5.6</v>
       </c>
       <c r="H30">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="I30">
         <v>1.04</v>
@@ -3825,10 +3825,10 @@
         <v>4.2</v>
       </c>
       <c r="M30">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="N30">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="O30">
         <v>1.32</v>
@@ -3908,13 +3908,13 @@
         <v>121</v>
       </c>
       <c r="F31">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H31">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>1.06</v>
@@ -3929,10 +3929,10 @@
         <v>2.7</v>
       </c>
       <c r="M31">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="N31">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O31">
         <v>1.5</v>
@@ -4012,13 +4012,13 @@
         <v>122</v>
       </c>
       <c r="F32">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="G32">
-        <v>2.93</v>
+        <v>3.1</v>
       </c>
       <c r="H32">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="I32">
         <v>1.09</v>
@@ -4033,10 +4033,10 @@
         <v>2.65</v>
       </c>
       <c r="M32">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="N32">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="O32">
         <v>1.53</v>
@@ -4116,13 +4116,13 @@
         <v>123</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G33">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H33">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I33">
         <v>1.05</v>
@@ -4137,10 +4137,10 @@
         <v>3.6</v>
       </c>
       <c r="M33">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="N33">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="O33">
         <v>1.4</v>
@@ -4428,13 +4428,13 @@
         <v>126</v>
       </c>
       <c r="F36">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="G36">
-        <v>4.32</v>
+        <v>3.8</v>
       </c>
       <c r="H36">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I36">
         <v>1.07</v>
@@ -4449,10 +4449,10 @@
         <v>3.25</v>
       </c>
       <c r="M36">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="N36">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="O36">
         <v>1.36</v>
@@ -4532,7 +4532,7 @@
         <v>127</v>
       </c>
       <c r="F37">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G37">
         <v>3.15</v>
@@ -4553,10 +4553,10 @@
         <v>2.62</v>
       </c>
       <c r="M37">
-        <v>2.29</v>
+        <v>2.43</v>
       </c>
       <c r="N37">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="O37">
         <v>1.52</v>
@@ -4636,13 +4636,13 @@
         <v>128</v>
       </c>
       <c r="F38">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="G38">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="H38">
-        <v>3.58</v>
+        <v>3.1</v>
       </c>
       <c r="I38">
         <v>1.08</v>
@@ -4657,10 +4657,10 @@
         <v>3</v>
       </c>
       <c r="M38">
-        <v>2.03</v>
+        <v>2.28</v>
       </c>
       <c r="N38">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="O38">
         <v>1.44</v>
@@ -4708,19 +4708,19 @@
         <v>2.05</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF38">
         <v>1.95</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="39" spans="1:34">

--- a/Jogos_do_Dia/2023-03-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -940,10 +940,10 @@
         <v>1.7</v>
       </c>
       <c r="V2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="W2">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="X2">
         <v>1.61</v>
@@ -1044,10 +1044,10 @@
         <v>1.55</v>
       </c>
       <c r="V3">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
         <v>2.17</v>
@@ -1100,13 +1100,13 @@
         <v>94</v>
       </c>
       <c r="F4">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="G4">
-        <v>3.26</v>
+        <v>3.1</v>
       </c>
       <c r="H4">
-        <v>3.99</v>
+        <v>3.8</v>
       </c>
       <c r="I4">
         <v>1.07</v>
@@ -1121,10 +1121,10 @@
         <v>3.12</v>
       </c>
       <c r="M4">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="N4">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O4">
         <v>1.45</v>
@@ -1148,10 +1148,10 @@
         <v>1.9</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="W4">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>1.74</v>
@@ -1163,28 +1163,28 @@
         <v>3.08</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -1204,13 +1204,13 @@
         <v>95</v>
       </c>
       <c r="F5">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="G5">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="H5">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1.07</v>
@@ -1225,10 +1225,10 @@
         <v>2.48</v>
       </c>
       <c r="M5">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="N5">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O5">
         <v>1.56</v>
@@ -1252,10 +1252,10 @@
         <v>1.44</v>
       </c>
       <c r="V5">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="W5">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="X5">
         <v>1.2</v>
@@ -1308,13 +1308,13 @@
         <v>96</v>
       </c>
       <c r="F6">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="G6">
-        <v>3.14</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1412,13 +1412,13 @@
         <v>97</v>
       </c>
       <c r="F7">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="G7">
-        <v>2.85</v>
+        <v>2.76</v>
       </c>
       <c r="H7">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="I7">
         <v>1.12</v>
@@ -1427,16 +1427,16 @@
         <v>5.5</v>
       </c>
       <c r="K7">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="L7">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="N7">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="O7">
         <v>1.64</v>
@@ -1475,25 +1475,25 @@
         <v>2.85</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1516,13 +1516,13 @@
         <v>98</v>
       </c>
       <c r="F8">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I8">
         <v>1.07</v>
@@ -1540,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="N8">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O8">
         <v>1.4</v>
@@ -1620,13 +1620,13 @@
         <v>99</v>
       </c>
       <c r="F9">
-        <v>2.4</v>
+        <v>2.01</v>
       </c>
       <c r="G9">
         <v>3.1</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="I9">
         <v>1.09</v>
@@ -1635,16 +1635,16 @@
         <v>6</v>
       </c>
       <c r="K9">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="L9">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="M9">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="N9">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="O9">
         <v>1.53</v>
@@ -1724,13 +1724,13 @@
         <v>100</v>
       </c>
       <c r="F10">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="G10">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="H10">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="I10">
         <v>1.08</v>
@@ -1745,10 +1745,10 @@
         <v>2.75</v>
       </c>
       <c r="M10">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N10">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O10">
         <v>1.45</v>
@@ -1787,28 +1787,28 @@
         <v>2.58</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1828,13 +1828,13 @@
         <v>101</v>
       </c>
       <c r="F11">
-        <v>2.48</v>
+        <v>2.35</v>
       </c>
       <c r="G11">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H11">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="I11">
         <v>1.05</v>
@@ -1849,10 +1849,10 @@
         <v>4.12</v>
       </c>
       <c r="M11">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="N11">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="O11">
         <v>1.36</v>
@@ -1932,13 +1932,13 @@
         <v>102</v>
       </c>
       <c r="F12">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="G12">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H12">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I12">
         <v>1.05</v>
@@ -1953,10 +1953,10 @@
         <v>3.4</v>
       </c>
       <c r="M12">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="N12">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="O12">
         <v>1.4</v>
@@ -2036,10 +2036,10 @@
         <v>103</v>
       </c>
       <c r="F13">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="G13">
-        <v>5.75</v>
+        <v>5.1</v>
       </c>
       <c r="H13">
         <v>11.5</v>
@@ -2057,10 +2057,10 @@
         <v>3.4</v>
       </c>
       <c r="M13">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="N13">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="O13">
         <v>1.4</v>
@@ -2140,13 +2140,13 @@
         <v>104</v>
       </c>
       <c r="F14">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="G14">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H14">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="I14">
         <v>1.07</v>
@@ -2161,10 +2161,10 @@
         <v>3.1</v>
       </c>
       <c r="M14">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="N14">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="O14">
         <v>1.44</v>
@@ -2244,13 +2244,13 @@
         <v>105</v>
       </c>
       <c r="F15">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="G15">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="H15">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="I15">
         <v>1.06</v>
@@ -2265,10 +2265,10 @@
         <v>3.5</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="N15">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O15">
         <v>1.4</v>
@@ -2369,10 +2369,10 @@
         <v>4.5</v>
       </c>
       <c r="M16">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="N16">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O16">
         <v>1.31</v>
@@ -2452,13 +2452,13 @@
         <v>107</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="G17">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H17">
-        <v>2.4</v>
+        <v>2.77</v>
       </c>
       <c r="I17">
         <v>1.09</v>
@@ -2473,10 +2473,10 @@
         <v>2.5</v>
       </c>
       <c r="M17">
-        <v>2.48</v>
+        <v>2.22</v>
       </c>
       <c r="N17">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="O17">
         <v>1.53</v>
@@ -3183,10 +3183,10 @@
         <v>1.38</v>
       </c>
       <c r="G24">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H24">
-        <v>7.75</v>
+        <v>7.6</v>
       </c>
       <c r="I24">
         <v>1.06</v>
@@ -3201,10 +3201,10 @@
         <v>3.3</v>
       </c>
       <c r="M24">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="N24">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="O24">
         <v>1.38</v>
@@ -3284,13 +3284,13 @@
         <v>115</v>
       </c>
       <c r="F25">
-        <v>2.25</v>
+        <v>2.39</v>
       </c>
       <c r="G25">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H25">
-        <v>3.25</v>
+        <v>2.71</v>
       </c>
       <c r="I25">
         <v>1.04</v>
@@ -3305,10 +3305,10 @@
         <v>2.82</v>
       </c>
       <c r="M25">
-        <v>2.34</v>
+        <v>2.23</v>
       </c>
       <c r="N25">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="O25">
         <v>1.47</v>
@@ -3347,13 +3347,13 @@
         <v>3.29</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="AD25">
         <v>1.5</v>
@@ -3365,10 +3365,10 @@
         <v>2.38</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -3388,13 +3388,13 @@
         <v>116</v>
       </c>
       <c r="F26">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H26">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I26">
         <v>1.09</v>
@@ -3403,16 +3403,16 @@
         <v>7</v>
       </c>
       <c r="K26">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="L26">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="M26">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="N26">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O26">
         <v>1.53</v>
@@ -3492,13 +3492,13 @@
         <v>117</v>
       </c>
       <c r="F27">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="G27">
-        <v>3.5</v>
+        <v>4.05</v>
       </c>
       <c r="H27">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="I27">
         <v>1.07</v>
@@ -3513,10 +3513,10 @@
         <v>3.1</v>
       </c>
       <c r="M27">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="N27">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="O27">
         <v>1.44</v>
@@ -3596,13 +3596,13 @@
         <v>118</v>
       </c>
       <c r="F28">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G28">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H28">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="I28">
         <v>1.07</v>
@@ -3617,10 +3617,10 @@
         <v>3</v>
       </c>
       <c r="M28">
-        <v>2.08</v>
+        <v>2.45</v>
       </c>
       <c r="N28">
-        <v>1.67</v>
+        <v>1.51</v>
       </c>
       <c r="O28">
         <v>1.47</v>
@@ -3721,10 +3721,10 @@
         <v>3.1</v>
       </c>
       <c r="M29">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="N29">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O29">
         <v>1.44</v>
@@ -3804,13 +3804,13 @@
         <v>120</v>
       </c>
       <c r="F30">
-        <v>8.699999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="G30">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="H30">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="I30">
         <v>1.04</v>
@@ -3825,10 +3825,10 @@
         <v>4.2</v>
       </c>
       <c r="M30">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="N30">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="O30">
         <v>1.32</v>
@@ -3908,13 +3908,13 @@
         <v>121</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="G31">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="I31">
         <v>1.06</v>
@@ -3929,10 +3929,10 @@
         <v>2.7</v>
       </c>
       <c r="M31">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="N31">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="O31">
         <v>1.5</v>
@@ -4012,13 +4012,13 @@
         <v>122</v>
       </c>
       <c r="F32">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="G32">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H32">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I32">
         <v>1.09</v>
@@ -4033,10 +4033,10 @@
         <v>2.65</v>
       </c>
       <c r="M32">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N32">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="O32">
         <v>1.53</v>
@@ -4116,13 +4116,13 @@
         <v>123</v>
       </c>
       <c r="F33">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="G33">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="H33">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I33">
         <v>1.05</v>
@@ -4137,10 +4137,10 @@
         <v>3.6</v>
       </c>
       <c r="M33">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="N33">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="O33">
         <v>1.4</v>
@@ -4428,13 +4428,13 @@
         <v>126</v>
       </c>
       <c r="F36">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="G36">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="H36">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I36">
         <v>1.07</v>
@@ -4449,10 +4449,10 @@
         <v>3.25</v>
       </c>
       <c r="M36">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="N36">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="O36">
         <v>1.36</v>
@@ -4532,13 +4532,13 @@
         <v>127</v>
       </c>
       <c r="F37">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="G37">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H37">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I37">
         <v>1.1</v>
@@ -4553,10 +4553,10 @@
         <v>2.62</v>
       </c>
       <c r="M37">
-        <v>2.43</v>
+        <v>2.34</v>
       </c>
       <c r="N37">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="O37">
         <v>1.52</v>
@@ -4657,10 +4657,10 @@
         <v>3</v>
       </c>
       <c r="M38">
-        <v>2.28</v>
+        <v>2.15</v>
       </c>
       <c r="N38">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O38">
         <v>1.44</v>
